--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N2">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O2">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P2">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q2">
-        <v>1057.885533010248</v>
+        <v>2716.554793616464</v>
       </c>
       <c r="R2">
-        <v>4231.542132040991</v>
+        <v>10866.21917446586</v>
       </c>
       <c r="S2">
-        <v>0.03690625500713457</v>
+        <v>0.0948748730163728</v>
       </c>
       <c r="T2">
-        <v>0.01946732004847186</v>
+        <v>0.05802682296626221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N3">
         <v>28.703985</v>
       </c>
       <c r="O3">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P3">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q3">
-        <v>449.9665727464825</v>
+        <v>626.6936691612274</v>
       </c>
       <c r="R3">
-        <v>2699.799436478895</v>
+        <v>3760.162014967364</v>
       </c>
       <c r="S3">
-        <v>0.01569789978242115</v>
+        <v>0.02188709111318249</v>
       </c>
       <c r="T3">
-        <v>0.01242049778936468</v>
+        <v>0.02007968476097855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N4">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O4">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P4">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q4">
-        <v>365.3125696067551</v>
+        <v>380.2349018241421</v>
       </c>
       <c r="R4">
-        <v>2191.87541764053</v>
+        <v>2281.409410944853</v>
       </c>
       <c r="S4">
-        <v>0.01274459138585072</v>
+        <v>0.01327959152958343</v>
       </c>
       <c r="T4">
-        <v>0.01008378008066889</v>
+        <v>0.01218298083969662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N5">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O5">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P5">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q5">
-        <v>84.03988403847276</v>
+        <v>147.9754017537863</v>
       </c>
       <c r="R5">
-        <v>336.1595361538911</v>
+        <v>591.901607015145</v>
       </c>
       <c r="S5">
-        <v>0.002931883738184979</v>
+        <v>0.00516799715725496</v>
       </c>
       <c r="T5">
-        <v>0.001546510721966327</v>
+        <v>0.003160820632481146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N6">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O6">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P6">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q6">
-        <v>957.4323164433412</v>
+        <v>113.5228316053697</v>
       </c>
       <c r="R6">
-        <v>5744.593898660048</v>
+        <v>681.136989632218</v>
       </c>
       <c r="S6">
-        <v>0.03340176240257482</v>
+        <v>0.003964751330739823</v>
       </c>
       <c r="T6">
-        <v>0.02642815420102511</v>
+        <v>0.003637347533541201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N7">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O7">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P7">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q7">
-        <v>441.6342233411618</v>
+        <v>263.052709129812</v>
       </c>
       <c r="R7">
-        <v>2649.805340046971</v>
+        <v>1578.316254778872</v>
       </c>
       <c r="S7">
-        <v>0.01540721066496412</v>
+        <v>0.009187038094703465</v>
       </c>
       <c r="T7">
-        <v>0.01219049864356744</v>
+        <v>0.008428384926749792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N8">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O8">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P8">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q8">
-        <v>277.3875853819101</v>
+        <v>511.436542977819</v>
       </c>
       <c r="R8">
-        <v>1664.325512291461</v>
+        <v>3068.619257866914</v>
       </c>
       <c r="S8">
-        <v>0.009677168883090226</v>
+        <v>0.01786177005704966</v>
       </c>
       <c r="T8">
-        <v>0.007656772968720825</v>
+        <v>0.01638676926796474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N9">
         <v>28.703985</v>
       </c>
       <c r="O9">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P9">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q9">
         <v>117.9854882423383</v>
@@ -1013,10 +1013,10 @@
         <v>1061.869394181045</v>
       </c>
       <c r="S9">
-        <v>0.004116137691969775</v>
+        <v>0.004120608294399452</v>
       </c>
       <c r="T9">
-        <v>0.004885157869438194</v>
+        <v>0.005670501060224055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N10">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O10">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P10">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q10">
-        <v>95.78840851007</v>
+        <v>71.58553332530545</v>
       </c>
       <c r="R10">
-        <v>862.09567659063</v>
+        <v>644.2697999277491</v>
       </c>
       <c r="S10">
-        <v>0.003341752317134653</v>
+        <v>0.002500103587090228</v>
       </c>
       <c r="T10">
-        <v>0.003966093666305744</v>
+        <v>0.003440472626464795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N11">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O11">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P11">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q11">
-        <v>22.03605189956017</v>
+        <v>27.8588262222975</v>
       </c>
       <c r="R11">
-        <v>132.216311397361</v>
+        <v>167.152957333785</v>
       </c>
       <c r="S11">
-        <v>0.0007687676269108612</v>
+        <v>0.0009729612693388721</v>
       </c>
       <c r="T11">
-        <v>0.0006082645922656526</v>
+        <v>0.0008926154449642331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N12">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O12">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P12">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q12">
-        <v>251.0478025624485</v>
+        <v>21.37255787431045</v>
       </c>
       <c r="R12">
-        <v>2259.430223062037</v>
+        <v>192.353020868794</v>
       </c>
       <c r="S12">
-        <v>0.008758257799391557</v>
+        <v>0.0007464302649536636</v>
       </c>
       <c r="T12">
-        <v>0.01039456772661829</v>
+        <v>0.001027186596346923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N13">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O13">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P13">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q13">
-        <v>115.8006674748934</v>
+        <v>49.52403996946401</v>
       </c>
       <c r="R13">
-        <v>1042.206007274041</v>
+        <v>445.716359725176</v>
       </c>
       <c r="S13">
-        <v>0.004039916257918437</v>
+        <v>0.001729612454128189</v>
       </c>
       <c r="T13">
-        <v>0.004794695944633738</v>
+        <v>0.002380175098963158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N14">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O14">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P14">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q14">
-        <v>2902.922164474102</v>
+        <v>5146.266946528061</v>
       </c>
       <c r="R14">
-        <v>17417.53298684461</v>
+        <v>30877.60167916837</v>
       </c>
       <c r="S14">
-        <v>0.1012737033685349</v>
+        <v>0.1797318516112877</v>
       </c>
       <c r="T14">
-        <v>0.08012981521376837</v>
+        <v>0.1648898386358877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N15">
         <v>28.703985</v>
       </c>
       <c r="O15">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P15">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q15">
-        <v>1234.744116011613</v>
+        <v>1187.214380060156</v>
       </c>
       <c r="R15">
-        <v>11112.69704410452</v>
+        <v>10684.92942054141</v>
       </c>
       <c r="S15">
-        <v>0.04307628736013928</v>
+        <v>0.04146311122311995</v>
       </c>
       <c r="T15">
-        <v>0.05112425286309172</v>
+        <v>0.0570587154499615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N16">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O16">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P16">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q16">
-        <v>1002.44678859992</v>
+        <v>720.3205736074668</v>
       </c>
       <c r="R16">
-        <v>9022.02109739928</v>
+        <v>6482.885162467202</v>
       </c>
       <c r="S16">
-        <v>0.03497217388527552</v>
+        <v>0.02515698307012976</v>
       </c>
       <c r="T16">
-        <v>0.04150604359040698</v>
+        <v>0.03461933020061544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N17">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O17">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P17">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q17">
-        <v>230.6121356825026</v>
+        <v>280.325992589655</v>
       </c>
       <c r="R17">
-        <v>1383.672814095016</v>
+        <v>1681.95595553793</v>
       </c>
       <c r="S17">
-        <v>0.008045322505753478</v>
+        <v>0.009790302412684233</v>
       </c>
       <c r="T17">
-        <v>0.006365622903857322</v>
+        <v>0.008981832494083431</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N18">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O18">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P18">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q18">
-        <v>2627.270536991296</v>
+        <v>215.0587197209569</v>
       </c>
       <c r="R18">
-        <v>23645.43483292167</v>
+        <v>1935.528477488612</v>
       </c>
       <c r="S18">
-        <v>0.09165709652444305</v>
+        <v>0.007510862204044386</v>
       </c>
       <c r="T18">
-        <v>0.1087814402442801</v>
+        <v>0.01033593805776622</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N19">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O19">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P19">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q19">
-        <v>1211.879485561455</v>
+        <v>498.329525828272</v>
       </c>
       <c r="R19">
-        <v>10906.9153700531</v>
+        <v>4484.965732454448</v>
       </c>
       <c r="S19">
-        <v>0.04227861326808866</v>
+        <v>0.01740401135819742</v>
       </c>
       <c r="T19">
-        <v>0.05017754889941472</v>
+        <v>0.02395021749408801</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N20">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O20">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P20">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q20">
-        <v>287.5023826593235</v>
+        <v>723.7907949800069</v>
       </c>
       <c r="R20">
-        <v>1150.009530637294</v>
+        <v>2895.163179920028</v>
       </c>
       <c r="S20">
-        <v>0.01003004192655028</v>
+        <v>0.02527817952559317</v>
       </c>
       <c r="T20">
-        <v>0.00529064886822028</v>
+        <v>0.01546049445555365</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N21">
         <v>28.703985</v>
       </c>
       <c r="O21">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P21">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q21">
-        <v>122.287769087405</v>
+        <v>166.9744008392649</v>
       </c>
       <c r="R21">
-        <v>733.72661452443</v>
+        <v>1001.84640503559</v>
       </c>
       <c r="S21">
-        <v>0.004266230560267655</v>
+        <v>0.005831531583252429</v>
       </c>
       <c r="T21">
-        <v>0.003375528445025642</v>
+        <v>0.005349971600148958</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N22">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O22">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P22">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q22">
-        <v>99.28128412767001</v>
+        <v>101.3086584953663</v>
       </c>
       <c r="R22">
-        <v>595.68770476602</v>
+        <v>607.851950972198</v>
       </c>
       <c r="S22">
-        <v>0.003463607616435829</v>
+        <v>0.003538174945998889</v>
       </c>
       <c r="T22">
-        <v>0.002740476836993334</v>
+        <v>0.003245997249130092</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N23">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O23">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P23">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q23">
-        <v>22.8395853289735</v>
+        <v>39.4261267707675</v>
       </c>
       <c r="R23">
-        <v>91.35834131589401</v>
+        <v>157.70450708307</v>
       </c>
       <c r="S23">
-        <v>0.0007968003475855645</v>
+        <v>0.001376945821116425</v>
       </c>
       <c r="T23">
-        <v>0.0004202964342543877</v>
+        <v>0.0008421596662613591</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N24">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O24">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P24">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q24">
-        <v>260.2021330504663</v>
+        <v>30.24668625463134</v>
       </c>
       <c r="R24">
-        <v>1561.212798302798</v>
+        <v>181.480117527788</v>
       </c>
       <c r="S24">
-        <v>0.009077623217357906</v>
+        <v>0.001056356574996207</v>
       </c>
       <c r="T24">
-        <v>0.007182400236121882</v>
+        <v>0.0009691240791854417</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N25">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O25">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P25">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q25">
-        <v>120.0232799414357</v>
+        <v>70.086982935192</v>
       </c>
       <c r="R25">
-        <v>720.139679648614</v>
+        <v>420.521897611152</v>
       </c>
       <c r="S25">
-        <v>0.004187229750374527</v>
+        <v>0.002447767157762633</v>
       </c>
       <c r="T25">
-        <v>0.003313021396424502</v>
+        <v>0.002245633859793597</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N26">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O26">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P26">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q26">
-        <v>940.5079992421024</v>
+        <v>5741.664884088084</v>
       </c>
       <c r="R26">
-        <v>5643.047995452614</v>
+        <v>34449.98930452851</v>
       </c>
       <c r="S26">
-        <v>0.03281132690935733</v>
+        <v>0.2005259485508956</v>
       </c>
       <c r="T26">
-        <v>0.02596098962232888</v>
+        <v>0.1839667872023911</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N27">
         <v>28.703985</v>
       </c>
       <c r="O27">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P27">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q27">
-        <v>400.040597828575</v>
+        <v>1324.569282297846</v>
       </c>
       <c r="R27">
-        <v>3600.365380457175</v>
+        <v>11921.12354068062</v>
       </c>
       <c r="S27">
-        <v>0.01395614162021529</v>
+        <v>0.04626019057473084</v>
       </c>
       <c r="T27">
-        <v>0.01656357492510463</v>
+        <v>0.06366012999991036</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N28">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O28">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P28">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q28">
-        <v>324.77936716005</v>
+        <v>803.6581439986182</v>
       </c>
       <c r="R28">
-        <v>2923.01430444045</v>
+        <v>7232.923295987564</v>
       </c>
       <c r="S28">
-        <v>0.01133051712254437</v>
+        <v>0.02806752307724946</v>
       </c>
       <c r="T28">
-        <v>0.01344740361674186</v>
+        <v>0.03862461753128178</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N29">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O29">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P29">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q29">
-        <v>74.7152510618525</v>
+        <v>312.75834006921</v>
       </c>
       <c r="R29">
-        <v>448.291506371115</v>
+        <v>1876.55004041526</v>
       </c>
       <c r="S29">
-        <v>0.002606577009106428</v>
+        <v>0.01092299255976915</v>
       </c>
       <c r="T29">
-        <v>0.002062376778304406</v>
+        <v>0.01002098662231899</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N30">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O30">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P30">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q30">
-        <v>851.2005545491616</v>
+        <v>239.9399626697983</v>
       </c>
       <c r="R30">
-        <v>7660.804990942454</v>
+        <v>2159.459664028184</v>
       </c>
       <c r="S30">
-        <v>0.02969567476645075</v>
+        <v>0.008379832257881675</v>
       </c>
       <c r="T30">
-        <v>0.03524373335630128</v>
+        <v>0.01153175558264102</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N31">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O31">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P31">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q31">
-        <v>392.6327630263683</v>
+        <v>555.9838167903041</v>
       </c>
       <c r="R31">
-        <v>3533.694867237315</v>
+        <v>5003.854351112736</v>
       </c>
       <c r="S31">
-        <v>0.013697705871044</v>
+        <v>0.01941757042452857</v>
       </c>
       <c r="T31">
-        <v>0.01625685548851453</v>
+        <v>0.02672114062113536</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>22.4946565</v>
+        <v>41.474781</v>
       </c>
       <c r="N32">
-        <v>44.989313</v>
+        <v>82.949562</v>
       </c>
       <c r="O32">
-        <v>0.3151966875580082</v>
+        <v>0.6394851352970483</v>
       </c>
       <c r="P32">
-        <v>0.2370110495774999</v>
+        <v>0.5499336598827257</v>
       </c>
       <c r="Q32">
-        <v>3568.63181077429</v>
+        <v>3470.681135127663</v>
       </c>
       <c r="R32">
-        <v>21411.79086464574</v>
+        <v>20824.08681076598</v>
       </c>
       <c r="S32">
-        <v>0.124498191463341</v>
+        <v>0.1212125125358495</v>
       </c>
       <c r="T32">
-        <v>0.09850550285598968</v>
+        <v>0.1112029473546664</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>9.567995</v>
+        <v>9.567994999999998</v>
       </c>
       <c r="N33">
         <v>28.703985</v>
       </c>
       <c r="O33">
-        <v>0.134067409767808</v>
+        <v>0.1475255668522151</v>
       </c>
       <c r="P33">
-        <v>0.1512172815776674</v>
+        <v>0.1902998297238611</v>
       </c>
       <c r="Q33">
-        <v>1517.900543283662</v>
+        <v>800.6663072553847</v>
       </c>
       <c r="R33">
-        <v>13661.10488955295</v>
+        <v>7205.996765298463</v>
       </c>
       <c r="S33">
-        <v>0.05295471275279483</v>
+        <v>0.02796303406352995</v>
       </c>
       <c r="T33">
-        <v>0.06284826968564257</v>
+        <v>0.03848082685263766</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.76793</v>
+        <v>5.805205666666667</v>
       </c>
       <c r="N34">
-        <v>23.30379</v>
+        <v>17.415617</v>
       </c>
       <c r="O34">
-        <v>0.108844774099239</v>
+        <v>0.0895084348046473</v>
       </c>
       <c r="P34">
-        <v>0.1227681722331178</v>
+        <v>0.1154609351153152</v>
       </c>
       <c r="Q34">
-        <v>1232.33186965393</v>
+        <v>485.7896125560303</v>
       </c>
       <c r="R34">
-        <v>11090.98682688537</v>
+        <v>4372.106513004273</v>
       </c>
       <c r="S34">
-        <v>0.04299213177199795</v>
+        <v>0.01696605859459554</v>
       </c>
       <c r="T34">
-        <v>0.05102437444200101</v>
+        <v>0.02334753666812651</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.7870065</v>
+        <v>2.2592025</v>
       </c>
       <c r="N35">
-        <v>3.574013</v>
+        <v>4.518405</v>
       </c>
       <c r="O35">
-        <v>0.02503965906056978</v>
+        <v>0.03483385280264482</v>
       </c>
       <c r="P35">
-        <v>0.01882848427433487</v>
+        <v>0.02995583024877705</v>
       </c>
       <c r="Q35">
-        <v>283.4970270366398</v>
+        <v>189.0539578059075</v>
       </c>
       <c r="R35">
-        <v>1700.982162219839</v>
+        <v>1134.323746835445</v>
       </c>
       <c r="S35">
-        <v>0.009890307833028472</v>
+        <v>0.006602653582481182</v>
       </c>
       <c r="T35">
-        <v>0.007825412843686772</v>
+        <v>0.006057415388667892</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>20.35864033333333</v>
+        <v>1.733200666666667</v>
       </c>
       <c r="N36">
-        <v>61.07592099999999</v>
+        <v>5.199602000000001</v>
       </c>
       <c r="O36">
-        <v>0.285266680833803</v>
+        <v>0.02672361459413777</v>
       </c>
       <c r="P36">
-        <v>0.3217579281577931</v>
+        <v>0.03447198621487044</v>
       </c>
       <c r="Q36">
-        <v>3229.766656701151</v>
+        <v>145.0372180914153</v>
       </c>
       <c r="R36">
-        <v>29067.89991031036</v>
+        <v>1305.334962822738</v>
       </c>
       <c r="S36">
-        <v>0.1126762661235849</v>
+        <v>0.005065381961522015</v>
       </c>
       <c r="T36">
-        <v>0.1337276323934464</v>
+        <v>0.006970634365389634</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.390817666666665</v>
+        <v>4.016136</v>
       </c>
       <c r="N37">
-        <v>28.172453</v>
+        <v>12.048408</v>
       </c>
       <c r="O37">
-        <v>0.1315847886805721</v>
+        <v>0.06192339564930666</v>
       </c>
       <c r="P37">
-        <v>0.1484170841795869</v>
+        <v>0.07987775881445054</v>
       </c>
       <c r="Q37">
-        <v>1489.792504919906</v>
+        <v>336.077180282328</v>
       </c>
       <c r="R37">
-        <v>13408.13254427916</v>
+        <v>3024.694622540952</v>
       </c>
       <c r="S37">
-        <v>0.05197411286818233</v>
+        <v>0.01173739615998639</v>
       </c>
       <c r="T37">
-        <v>0.06168446380703201</v>
+        <v>0.01615220681372062</v>
       </c>
     </row>
   </sheetData>
